--- a/public/uploads/Libro1.xlsx
+++ b/public/uploads/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RUTH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD6957C-56CA-42D5-B5A3-14D9A9120E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A82C8E-174D-4824-94B2-E00B42EF23D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CAB2FEC-9B77-46BE-91C1-BE8BAD379981}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="161">
   <si>
     <t>true</t>
   </si>
@@ -519,330 +519,6 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>rocío.lópez100@example.com</t>
-  </si>
-  <si>
-    <t>VzZxhzy5</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>natalia.alonso101@example.com</t>
-  </si>
-  <si>
-    <t>9PilPHc5</t>
-  </si>
-  <si>
-    <t>patricia.sánchez102@example.com</t>
-  </si>
-  <si>
-    <t>8XaJRkL4</t>
-  </si>
-  <si>
-    <t>gonzalo.ramos103@example.com</t>
-  </si>
-  <si>
-    <t>TGTLOMeR</t>
-  </si>
-  <si>
-    <t>Andrés</t>
-  </si>
-  <si>
-    <t>andrés.vega104@example.com</t>
-  </si>
-  <si>
-    <t>BcN1hm1r</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>alejandro.castro105@example.com</t>
-  </si>
-  <si>
-    <t>ZZDw7bSh</t>
-  </si>
-  <si>
-    <t>valeria.cano106@example.com</t>
-  </si>
-  <si>
-    <t>Y4c90hFq</t>
-  </si>
-  <si>
-    <t>Álvaro</t>
-  </si>
-  <si>
-    <t>álvaro.fernández107@example.com</t>
-  </si>
-  <si>
-    <t>qrKTxoj6</t>
-  </si>
-  <si>
-    <t>ana.gómez108@example.com</t>
-  </si>
-  <si>
-    <t>WoqnwXE0</t>
-  </si>
-  <si>
-    <t>raúl.díaz109@example.com</t>
-  </si>
-  <si>
-    <t>ZRIsNpB8</t>
-  </si>
-  <si>
-    <t>javier.romero110@example.com</t>
-  </si>
-  <si>
-    <t>5ANSKu1h</t>
-  </si>
-  <si>
-    <t>andrés.alonso111@example.com</t>
-  </si>
-  <si>
-    <t>XAGHi9N6</t>
-  </si>
-  <si>
-    <t>natalia.ramos112@example.com</t>
-  </si>
-  <si>
-    <t>uMZsuHN7</t>
-  </si>
-  <si>
-    <t>óscar.alonso113@example.com</t>
-  </si>
-  <si>
-    <t>ZItao3OS</t>
-  </si>
-  <si>
-    <t>javier.ruiz114@example.com</t>
-  </si>
-  <si>
-    <t>vX8ZOCIS</t>
-  </si>
-  <si>
-    <t>sofía.morales115@example.com</t>
-  </si>
-  <si>
-    <t>IKOY7ZRO</t>
-  </si>
-  <si>
-    <t>Rubén</t>
-  </si>
-  <si>
-    <t>rubén.castro116@example.com</t>
-  </si>
-  <si>
-    <t>9bW1iH6S</t>
-  </si>
-  <si>
-    <t>maría.torres117@example.com</t>
-  </si>
-  <si>
-    <t>XXqswIIL</t>
-  </si>
-  <si>
-    <t>laura.ramos118@example.com</t>
-  </si>
-  <si>
-    <t>WkCuV0F7</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>hugo.pérez119@example.com</t>
-  </si>
-  <si>
-    <t>UuSnmH4B</t>
-  </si>
-  <si>
-    <t>noelia.navarro120@example.com</t>
-  </si>
-  <si>
-    <t>Ts1d3Q28</t>
-  </si>
-  <si>
-    <t>gonzalo.romero121@example.com</t>
-  </si>
-  <si>
-    <t>vu7cDCuE</t>
-  </si>
-  <si>
-    <t>andrés.silva122@example.com</t>
-  </si>
-  <si>
-    <t>Rxyl8ukJ</t>
-  </si>
-  <si>
-    <t>rubén.hernández123@example.com</t>
-  </si>
-  <si>
-    <t>1MDxex3o</t>
-  </si>
-  <si>
-    <t>ana.sánchez124@example.com</t>
-  </si>
-  <si>
-    <t>Zyolz8SZ</t>
-  </si>
-  <si>
-    <t>patricia.torres125@example.com</t>
-  </si>
-  <si>
-    <t>pi6z7Xzz</t>
-  </si>
-  <si>
-    <t>adrián.vega126@example.com</t>
-  </si>
-  <si>
-    <t>MeNGMqFd</t>
-  </si>
-  <si>
-    <t>ana.díaz127@example.com</t>
-  </si>
-  <si>
-    <t>G6HP4upK</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>manuel.ramos128@example.com</t>
-  </si>
-  <si>
-    <t>viKAvmdM</t>
-  </si>
-  <si>
-    <t>carmen.castro129@example.com</t>
-  </si>
-  <si>
-    <t>1OYuKUp2</t>
-  </si>
-  <si>
-    <t>sofía.castro130@example.com</t>
-  </si>
-  <si>
-    <t>MMTmAsBS</t>
-  </si>
-  <si>
-    <t>carmen.vega131@example.com</t>
-  </si>
-  <si>
-    <t>9m5HnNRy</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>irene.romero132@example.com</t>
-  </si>
-  <si>
-    <t>uM8EqSb2</t>
-  </si>
-  <si>
-    <t>claudia.morales133@example.com</t>
-  </si>
-  <si>
-    <t>5YldA98N</t>
-  </si>
-  <si>
-    <t>hugo.silva134@example.com</t>
-  </si>
-  <si>
-    <t>pDWlGG1T</t>
-  </si>
-  <si>
-    <t>natalia.vega135@example.com</t>
-  </si>
-  <si>
-    <t>HnaNMbzj</t>
-  </si>
-  <si>
-    <t>noelia.alonso136@example.com</t>
-  </si>
-  <si>
-    <t>ZS1sRnU4</t>
-  </si>
-  <si>
-    <t>adrián.silva137@example.com</t>
-  </si>
-  <si>
-    <t>EkMNmvHs</t>
-  </si>
-  <si>
-    <t>maría.ramos138@example.com</t>
-  </si>
-  <si>
-    <t>LOX8aCMU</t>
-  </si>
-  <si>
-    <t>paula.vega139@example.com</t>
-  </si>
-  <si>
-    <t>GObGNzxT</t>
-  </si>
-  <si>
-    <t>raúl.navarro140@example.com</t>
-  </si>
-  <si>
-    <t>ULJpWHQf</t>
-  </si>
-  <si>
-    <t>adrián.díaz141@example.com</t>
-  </si>
-  <si>
-    <t>bKAYbcS6</t>
-  </si>
-  <si>
-    <t>sergio.fernández142@example.com</t>
-  </si>
-  <si>
-    <t>xHgqdz5o</t>
-  </si>
-  <si>
-    <t>álvaro.sánchez143@example.com</t>
-  </si>
-  <si>
-    <t>anVmmQnH</t>
-  </si>
-  <si>
-    <t>álvaro.cano144@example.com</t>
-  </si>
-  <si>
-    <t>hQITRdrh</t>
-  </si>
-  <si>
-    <t>rocío.ruiz145@example.com</t>
-  </si>
-  <si>
-    <t>x96DEsry</t>
-  </si>
-  <si>
-    <t>hugo.alonso146@example.com</t>
-  </si>
-  <si>
-    <t>SWcs6DBA</t>
-  </si>
-  <si>
-    <t>javier.díaz147@example.com</t>
-  </si>
-  <si>
-    <t>7jFY1XM2</t>
-  </si>
-  <si>
-    <t>natalia.castro148@example.com</t>
-  </si>
-  <si>
-    <t>KGVK9TRm</t>
-  </si>
-  <si>
-    <t>valeria.castro149@example.com</t>
-  </si>
-  <si>
-    <t>idRWmnul</t>
   </si>
 </sst>
 </file>
@@ -912,13 +588,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1254,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4500A586-AC05-4611-8C72-8F850E3FC8FD}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,1157 +2092,404 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>162</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>165</v>
-      </c>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>167</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>169</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
-        <v>172</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" t="s">
-        <v>174</v>
-      </c>
-      <c r="F56" t="s">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>175</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>177</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>179</v>
-      </c>
-      <c r="F58" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" t="s">
-        <v>180</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" t="s">
-        <v>181</v>
-      </c>
-      <c r="F59" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>182</v>
-      </c>
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>184</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" t="s">
-        <v>186</v>
-      </c>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F62" t="s">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
-        <v>188</v>
-      </c>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>190</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>192</v>
-      </c>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" t="s">
-        <v>193</v>
-      </c>
-      <c r="F65" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>194</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F66" t="s">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>196</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
-        <v>198</v>
-      </c>
-      <c r="F67" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>199</v>
-      </c>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>201</v>
-      </c>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" t="s">
-        <v>202</v>
-      </c>
-      <c r="F69" t="s">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>203</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E70" t="s">
-        <v>205</v>
-      </c>
-      <c r="F70" t="s">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>206</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" t="s">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>208</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" t="s">
-        <v>209</v>
-      </c>
-      <c r="F72" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>210</v>
-      </c>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" t="s">
-        <v>211</v>
-      </c>
-      <c r="F73" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>212</v>
-      </c>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C74" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>214</v>
-      </c>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" t="s">
-        <v>216</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" t="s">
-        <v>95</v>
-      </c>
-      <c r="C76" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" t="s">
-        <v>217</v>
-      </c>
-      <c r="F76" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>218</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" t="s">
-        <v>219</v>
-      </c>
-      <c r="F77" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>220</v>
-      </c>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" t="s">
-        <v>221</v>
-      </c>
-      <c r="F78" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>222</v>
-      </c>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>223</v>
-      </c>
-      <c r="C79" t="s">
-        <v>75</v>
-      </c>
-      <c r="D79" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>225</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" t="s">
-        <v>226</v>
-      </c>
-      <c r="F80" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>227</v>
-      </c>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" t="s">
-        <v>228</v>
-      </c>
-      <c r="F81" t="s">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>229</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" t="s">
-        <v>57</v>
-      </c>
-      <c r="E82" t="s">
-        <v>230</v>
-      </c>
-      <c r="F82" t="s">
-        <v>0</v>
-      </c>
-      <c r="G82" t="s">
-        <v>231</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>232</v>
-      </c>
-      <c r="C83" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
-        <v>233</v>
-      </c>
-      <c r="F83" t="s">
-        <v>0</v>
-      </c>
-      <c r="G83" t="s">
-        <v>234</v>
-      </c>
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" t="s">
-        <v>44</v>
-      </c>
-      <c r="D84" t="s">
-        <v>67</v>
-      </c>
-      <c r="E84" t="s">
-        <v>235</v>
-      </c>
-      <c r="F84" t="s">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>236</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" t="s">
-        <v>237</v>
-      </c>
-      <c r="F85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>238</v>
-      </c>
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="G85" s="3"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" t="s">
-        <v>31</v>
-      </c>
-      <c r="E86" t="s">
-        <v>239</v>
-      </c>
-      <c r="F86" t="s">
-        <v>0</v>
-      </c>
-      <c r="G86" t="s">
-        <v>240</v>
-      </c>
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" t="s">
-        <v>241</v>
-      </c>
-      <c r="F87" t="s">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>242</v>
-      </c>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" t="s">
-        <v>243</v>
-      </c>
-      <c r="F88" t="s">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
-        <v>244</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" t="s">
-        <v>67</v>
-      </c>
-      <c r="E89" t="s">
-        <v>245</v>
-      </c>
-      <c r="F89" t="s">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>246</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="G89" s="3"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90" t="s">
-        <v>247</v>
-      </c>
-      <c r="F90" t="s">
-        <v>0</v>
-      </c>
-      <c r="G90" t="s">
-        <v>248</v>
-      </c>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="G90" s="3"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91" t="s">
-        <v>79</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" t="s">
-        <v>249</v>
-      </c>
-      <c r="F91" t="s">
-        <v>0</v>
-      </c>
-      <c r="G91" t="s">
-        <v>250</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" t="s">
-        <v>31</v>
-      </c>
-      <c r="E92" t="s">
-        <v>251</v>
-      </c>
-      <c r="F92" t="s">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>252</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" t="s">
-        <v>30</v>
-      </c>
-      <c r="E93" t="s">
-        <v>253</v>
-      </c>
-      <c r="F93" t="s">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>254</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94" t="s">
-        <v>255</v>
-      </c>
-      <c r="F94" t="s">
-        <v>0</v>
-      </c>
-      <c r="G94" t="s">
-        <v>256</v>
-      </c>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" t="s">
-        <v>178</v>
-      </c>
-      <c r="C95" t="s">
-        <v>67</v>
-      </c>
-      <c r="D95" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" t="s">
-        <v>257</v>
-      </c>
-      <c r="F95" t="s">
-        <v>0</v>
-      </c>
-      <c r="G95" t="s">
-        <v>258</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" t="s">
-        <v>259</v>
-      </c>
-      <c r="F96" t="s">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" t="s">
-        <v>57</v>
-      </c>
-      <c r="E97" t="s">
-        <v>261</v>
-      </c>
-      <c r="F97" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" t="s">
-        <v>31</v>
-      </c>
-      <c r="D98" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" t="s">
-        <v>263</v>
-      </c>
-      <c r="F98" t="s">
-        <v>0</v>
-      </c>
-      <c r="G98" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" t="s">
-        <v>163</v>
-      </c>
-      <c r="C99" t="s">
-        <v>40</v>
-      </c>
-      <c r="D99" t="s">
-        <v>36</v>
-      </c>
-      <c r="E99" t="s">
-        <v>265</v>
-      </c>
-      <c r="F99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" t="s">
-        <v>267</v>
-      </c>
-      <c r="F100" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J102" s="5"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="G100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
